--- a/Reportes/Originales/Medidas de Desempeño.xlsx
+++ b/Reportes/Originales/Medidas de Desempeño.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGM\Documents\Analytics\Proyectos\Proyecto3\Reportes\Originales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B92C044-DCF8-40AC-9218-DAD1D4E50A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD92E296-BC4C-4C14-A09A-7E24785EA053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7C615D1F-7A4A-47A2-8601-286EBF77D652}"/>
   </bookViews>
@@ -178,12 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -192,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -207,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,19 +548,19 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>35</v>
       </c>
       <c r="G3">
@@ -580,19 +577,19 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>64</v>
       </c>
       <c r="G4">
@@ -609,19 +606,19 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>2116</v>
       </c>
       <c r="G5">
@@ -638,19 +635,19 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.45</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.03</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.05</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>107767</v>
       </c>
       <c r="G6">
@@ -667,19 +664,19 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.42</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.68</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.52</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>286022</v>
       </c>
       <c r="G7">
@@ -696,19 +693,19 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>0.38</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>0.44</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.41</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>267359</v>
       </c>
       <c r="G8">
@@ -725,19 +722,19 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.38</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.12</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.18</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>129093</v>
       </c>
       <c r="G9">
@@ -754,19 +751,19 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.42</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.17</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>28840</v>
       </c>
       <c r="G10">
@@ -783,19 +780,19 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>2599</v>
       </c>
       <c r="G11">
@@ -812,19 +809,19 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>97</v>
       </c>
       <c r="G12">
@@ -841,51 +838,51 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
         <v>0.4</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f t="shared" ref="C14:D14" si="3">AVERAGE(C3:C12)</f>
         <v>0.20499999999999999</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f t="shared" si="3"/>
         <v>0.13700000000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <f>AVERAGE(E3:E12)</f>
         <v>0.13299999999999998</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>SUM(G3:G12)/SUM($F$3:$F$12)</f>
         <v>0.40217496043650913</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <f>SUM(H3:H12)/SUM($F$3:$F$12)</f>
         <v>0.40502952698569894</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <f>SUM(I3:I12)/SUM($F$3:$F$12)</f>
         <v>0.35422251672346328</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -905,19 +902,19 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>99</v>
       </c>
       <c r="G19">
@@ -934,19 +931,19 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>0.47</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>0.03</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.06</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>109883</v>
       </c>
       <c r="G20">
@@ -963,19 +960,19 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>0.69</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.97</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.81</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>553381</v>
       </c>
       <c r="G21">
@@ -992,19 +989,19 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>0.62</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.18</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>157933</v>
       </c>
       <c r="G22">
@@ -1021,19 +1018,19 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>2696</v>
       </c>
       <c r="G23">
@@ -1050,51 +1047,51 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f t="shared" ref="C25:E25" si="5">AVERAGE(C19:C23)</f>
         <v>0.35599999999999998</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="5"/>
         <v>0.23599999999999999</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="5"/>
         <v>0.23000000000000004</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f t="shared" ref="C26:E26" si="6">SUM(G19:G23)/SUM($F$19:$F$23)</f>
         <v>0.64490475635685784</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="6"/>
         <v>0.68993873726929378</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="6"/>
         <v>0.60565251847105317</v>
       </c>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
